--- a/data/Electricity_Carbon_Car.xlsx
+++ b/data/Electricity_Carbon_Car.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony Lee\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony Lee\Desktop\Master\ESRI\App Challenge\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7492EA-6DC3-4E84-A804-43E8BBD91131}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A39CE7-18BC-4AEC-B525-98314FA46B30}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Car" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Brand</t>
   </si>
@@ -129,9 +129,6 @@
     <t>https://www.bchydro.com/accounts-billing/rates-energy-use/electricity-rates/residential-rates.html</t>
   </si>
   <si>
-    <t>https://www.fueleconomy.gov/feg/Find.do?action=sbs&amp;id=34776</t>
-  </si>
-  <si>
     <t>kWh/100mi</t>
   </si>
   <si>
@@ -187,6 +184,12 @@
   </si>
   <si>
     <t>$/km</t>
+  </si>
+  <si>
+    <t>https://www.fueleconomy.gov/feg/Find.do?action=sbs&amp;id=38557</t>
+  </si>
+  <si>
+    <t>P70</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -277,7 +280,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -723,7 +726,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,8 +957,11 @@
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
       <c r="D9">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E9">
         <v>77700</v>
@@ -965,8 +971,8 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="11">
-        <f>0.2174804578274</f>
-        <v>0.2174804578274</v>
+        <f>0.211266730460934</f>
+        <v>0.211266730460934</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -974,70 +980,70 @@
         <v>32</v>
       </c>
       <c r="B12">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="9">
-        <f>0.2174804578274</f>
-        <v>0.2174804578274</v>
+        <f>0.211266730460934</f>
+        <v>0.211266730460934</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
       </c>
       <c r="D14" s="12">
         <v>0.25538</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="12">
         <v>1.44162963</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="C17" s="12">
         <v>0.108</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="12">
         <v>0.15569600004</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,7 +1059,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,26 +1069,26 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1092,11 +1098,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1" xr:uid="{0BCE83C4-9C55-4C6F-A719-152B09A51A7F}"/>
-    <hyperlink ref="C24" r:id="rId2" xr:uid="{A36356DA-FEFF-41FF-B930-773E00F8CA75}"/>
-    <hyperlink ref="C28" r:id="rId3" xr:uid="{BD471DF5-A273-4A1C-B3D8-3A698477797F}"/>
-    <hyperlink ref="C27" r:id="rId4" xr:uid="{CB3F2959-485C-43E8-BA00-AE9EA734C163}"/>
-    <hyperlink ref="C29" r:id="rId5" xr:uid="{9AD1FEDF-66AC-4F28-A1D2-5B6969A6C61C}"/>
+    <hyperlink ref="C24" r:id="rId1" xr:uid="{A36356DA-FEFF-41FF-B930-773E00F8CA75}"/>
+    <hyperlink ref="C28" r:id="rId2" xr:uid="{BD471DF5-A273-4A1C-B3D8-3A698477797F}"/>
+    <hyperlink ref="C27" r:id="rId3" xr:uid="{CB3F2959-485C-43E8-BA00-AE9EA734C163}"/>
+    <hyperlink ref="C29" r:id="rId4" xr:uid="{9AD1FEDF-66AC-4F28-A1D2-5B6969A6C61C}"/>
+    <hyperlink ref="C25" r:id="rId5" tooltip="https://www.fueleconomy.gov/feg/Find.do?action=sbs&amp;id=38557" xr:uid="{8E379F15-9EB2-40B6-9589-37C6B52B599C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
